--- a/Traduzido/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E650C1A-5723-4AE9-86AC-28F73D20A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139204BB-1ECA-430A-A662-469C78CC69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,94 +328,94 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>entediante</t>
-  </si>
-  <si>
-    <t>caprichoso</t>
-  </si>
-  <si>
-    <t>maculado</t>
-  </si>
-  <si>
-    <t>esquecido</t>
-  </si>
-  <si>
-    <t>antigo</t>
-  </si>
-  <si>
-    <t>selvagem</t>
-  </si>
-  <si>
-    <t>espiritual</t>
-  </si>
-  <si>
-    <t>triste</t>
-  </si>
-  <si>
-    <t>perigoso</t>
-  </si>
-  <si>
-    <t>enredado</t>
-  </si>
-  <si>
-    <t>encantador</t>
-  </si>
-  <si>
-    <t>estranho</t>
-  </si>
-  <si>
-    <t>trágico</t>
-  </si>
-  <si>
-    <t>ominoso</t>
-  </si>
-  <si>
-    <t>gelado</t>
-  </si>
-  <si>
-    <t>assustador</t>
-  </si>
-  <si>
-    <t>musgoso</t>
-  </si>
-  <si>
-    <t>velho</t>
-  </si>
-  <si>
-    <t>úmido</t>
-  </si>
-  <si>
-    <t>histórico</t>
-  </si>
-  <si>
-    <t>desconhecido</t>
-  </si>
-  <si>
-    <t>tradicional</t>
-  </si>
-  <si>
-    <t>sem nome</t>
-  </si>
-  <si>
-    <t>imutável</t>
-  </si>
-  <si>
-    <t>proibido</t>
-  </si>
-  <si>
-    <t>silencioso</t>
-  </si>
-  <si>
-    <t>nevoento</t>
-  </si>
-  <si>
-    <t>escuro</t>
-  </si>
-  <si>
-    <t>encantado</t>
-  </si>
-  <si>
-    <t>místico</t>
+    <t xml:space="preserve">Entediante  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprichoso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maculado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquecido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selvagem  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espiritual  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triste  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigoso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enredado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encantador  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estranho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trágico  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ominoso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assustador  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musgoso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Úmido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histórico  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconhecido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tradicional  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem Nome  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imutável  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proibido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silencioso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escuro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encantado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Místico  </t>
+  </si>
+  <si>
+    <t>Nebuloso</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
@@ -1298,7 +1298,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
@@ -1315,7 +1315,7 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
@@ -1332,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139204BB-1ECA-430A-A662-469C78CC69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA034700-0ADA-48D1-BA8D-7A65008C0BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoneAffix" sheetId="1" r:id="rId1"/>
@@ -328,36 +328,21 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t xml:space="preserve">Entediante  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Caprichoso  </t>
   </si>
   <si>
-    <t xml:space="preserve">Maculado  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Esquecido  </t>
   </si>
   <si>
-    <t xml:space="preserve">Antigo  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Selvagem  </t>
   </si>
   <si>
     <t xml:space="preserve">Espiritual  </t>
   </si>
   <si>
-    <t xml:space="preserve">Triste  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Perigoso  </t>
   </si>
   <si>
-    <t xml:space="preserve">Enredado  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Encantador  </t>
   </si>
   <si>
@@ -367,18 +352,6 @@
     <t xml:space="preserve">Trágico  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ominoso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gelado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assustador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musgoso  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Velho  </t>
   </si>
   <si>
@@ -406,9 +379,6 @@
     <t xml:space="preserve">Silencioso  </t>
   </si>
   <si>
-    <t xml:space="preserve">Escuro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Encantado  </t>
   </si>
   <si>
@@ -416,6 +386,36 @@
   </si>
   <si>
     <t>Nebuloso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sombrio  </t>
+  </si>
+  <si>
+    <t>Comum</t>
+  </si>
+  <si>
+    <t>Impuro</t>
+  </si>
+  <si>
+    <t>Ancestral</t>
+  </si>
+  <si>
+    <t>Melancólico</t>
+  </si>
+  <si>
+    <t>Do Engano</t>
+  </si>
+  <si>
+    <t>Sinistro</t>
+  </si>
+  <si>
+    <t>Arrepiante</t>
+  </si>
+  <si>
+    <t>Aterrorizante</t>
+  </si>
+  <si>
+    <t>Coberto de Musgo</t>
   </si>
 </sst>
 </file>
@@ -796,13 +796,15 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -839,7 +841,7 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -856,7 +858,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -873,7 +875,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -890,7 +892,7 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -907,7 +909,7 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -924,7 +926,7 @@
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -941,7 +943,7 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -958,7 +960,7 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -975,7 +977,7 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -992,7 +994,7 @@
         <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -1009,7 +1011,7 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -1026,7 +1028,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -1043,7 +1045,7 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1060,7 +1062,7 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -1077,7 +1079,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
@@ -1094,7 +1096,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
@@ -1111,7 +1113,7 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -1128,7 +1130,7 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -1145,7 +1147,7 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -1162,7 +1164,7 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -1179,7 +1181,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -1196,7 +1198,7 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1213,7 +1215,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>75</v>
@@ -1230,7 +1232,7 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>78</v>
@@ -1247,7 +1249,7 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -1264,7 +1266,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
@@ -1281,7 +1283,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
@@ -1298,7 +1300,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
@@ -1315,7 +1317,7 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
@@ -1332,7 +1334,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA034700-0ADA-48D1-BA8D-7A65008C0BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139204BB-1ECA-430A-A662-469C78CC69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoneAffix" sheetId="1" r:id="rId1"/>
@@ -328,21 +328,36 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
+    <t xml:space="preserve">Entediante  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Caprichoso  </t>
   </si>
   <si>
+    <t xml:space="preserve">Maculado  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Esquecido  </t>
   </si>
   <si>
+    <t xml:space="preserve">Antigo  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Selvagem  </t>
   </si>
   <si>
     <t xml:space="preserve">Espiritual  </t>
   </si>
   <si>
+    <t xml:space="preserve">Triste  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Perigoso  </t>
   </si>
   <si>
+    <t xml:space="preserve">Enredado  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Encantador  </t>
   </si>
   <si>
@@ -352,6 +367,18 @@
     <t xml:space="preserve">Trágico  </t>
   </si>
   <si>
+    <t xml:space="preserve">Ominoso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assustador  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musgoso  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Velho  </t>
   </si>
   <si>
@@ -379,6 +406,9 @@
     <t xml:space="preserve">Silencioso  </t>
   </si>
   <si>
+    <t xml:space="preserve">Escuro  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Encantado  </t>
   </si>
   <si>
@@ -386,36 +416,6 @@
   </si>
   <si>
     <t>Nebuloso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sombrio  </t>
-  </si>
-  <si>
-    <t>Comum</t>
-  </si>
-  <si>
-    <t>Impuro</t>
-  </si>
-  <si>
-    <t>Ancestral</t>
-  </si>
-  <si>
-    <t>Melancólico</t>
-  </si>
-  <si>
-    <t>Do Engano</t>
-  </si>
-  <si>
-    <t>Sinistro</t>
-  </si>
-  <si>
-    <t>Arrepiante</t>
-  </si>
-  <si>
-    <t>Aterrorizante</t>
-  </si>
-  <si>
-    <t>Coberto de Musgo</t>
   </si>
 </sst>
 </file>
@@ -796,15 +796,13 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,7 +839,7 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -858,7 +856,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -875,7 +873,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -892,7 +890,7 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -909,7 +907,7 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -926,7 +924,7 @@
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -943,7 +941,7 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -960,7 +958,7 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -977,7 +975,7 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -994,7 +992,7 @@
         <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -1011,7 +1009,7 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -1028,7 +1026,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -1045,7 +1043,7 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1062,7 +1060,7 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -1079,7 +1077,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
@@ -1096,7 +1094,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
@@ -1113,7 +1111,7 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -1130,7 +1128,7 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -1147,7 +1145,7 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -1164,7 +1162,7 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -1181,7 +1179,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -1198,7 +1196,7 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1215,7 +1213,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
         <v>75</v>
@@ -1232,7 +1230,7 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>78</v>
@@ -1249,7 +1247,7 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -1266,7 +1264,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
@@ -1283,7 +1281,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
@@ -1300,7 +1298,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
@@ -1317,7 +1315,7 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
@@ -1334,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>
